--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E6320-36A4-4C4A-B34C-FA5DA5D0B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C925BCC-6BD5-401D-9A3A-3D9F076B04E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9E2B-F8C5-4623-913E-2F62897E4AC7}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C925BCC-6BD5-401D-9A3A-3D9F076B04E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D1A66-3E48-4071-8C9C-60C2A714572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9E2B-F8C5-4623-913E-2F62897E4AC7}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +644,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -675,12 +675,12 @@
       <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -713,12 +713,12 @@
       <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -749,11 +749,12 @@
       <c r="K4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -782,11 +783,12 @@
       <c r="K5" s="9">
         <v>80</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -817,11 +819,12 @@
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
@@ -840,7 +843,7 @@
       <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -849,7 +852,7 @@
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -860,7 +863,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D1A66-3E48-4071-8C9C-60C2A714572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286AFF93-7704-4DE7-8214-C6B552E88176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>_id</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>Layak</t>
+  </si>
+  <si>
+    <t>layak</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
@@ -219,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,6 +294,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -594,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9E2B-F8C5-4623-913E-2F62897E4AC7}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +668,7 @@
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -683,7 +704,7 @@
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -721,7 +742,7 @@
       <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
@@ -755,7 +776,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4"/>
@@ -789,7 +810,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
@@ -814,10 +835,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>3</v>
@@ -825,7 +846,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="4"/>
@@ -838,10 +859,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>14</v>
@@ -852,6 +873,12 @@
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>46</v>
       </c>
@@ -865,6 +892,19 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L9" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L10" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">

--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286AFF93-7704-4DE7-8214-C6B552E88176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD225FE-E8E4-4BE9-B550-047077735B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +680,7 @@
       <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -716,7 +716,7 @@
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -752,7 +752,7 @@
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -786,7 +786,7 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="6">
@@ -822,7 +822,7 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
       <c r="I7" s="4"/>

--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD225FE-E8E4-4BE9-B550-047077735B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F70498-F29E-418D-A202-320A13D47453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>_id</t>
   </si>
@@ -208,6 +208,60 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>closingdate</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Schedule item</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> konsumen</t>
+  </si>
+  <si>
+    <t>closingDate</t>
+  </si>
+  <si>
+    <t>result Doc</t>
+  </si>
+  <si>
+    <t>Closing By</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>1. Ketika terdapat schedule yang aktif maka sales tdk dapat melihat penilaian terakhir wajib mengisi penilaian</t>
+  </si>
+  <si>
+    <t>2. setelah diisi maka dok result dibuat dan schedule item untuk konsumen tersebut di close</t>
+  </si>
+  <si>
+    <t>3. setelah di close maka sales bisa kembali melihat penilaian kelayakan konsumen tersebut</t>
+  </si>
+  <si>
+    <t>4. Schedule bisa memlih untuk konsumen yang di pilih atau semua konsumen</t>
+  </si>
+  <si>
+    <t>5. pada saat menambahkan dat konsumen baru dan terdapat schedule untuk semua konsumen yang aktif konsumen tersebut otomatis ditambahkan di schedule list</t>
+  </si>
+  <si>
+    <t>6. jika schedule sudah close karena melebihi masa maka konsumen tersebut tidak memiliki penilaian</t>
+  </si>
+  <si>
+    <t>duedate</t>
   </si>
 </sst>
 </file>
@@ -231,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -297,6 +357,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -613,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9E2B-F8C5-4623-913E-2F62897E4AC7}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,7 +1047,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -992,7 +1055,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1088,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1048,7 +1111,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1057,6 +1120,123 @@
         <v>1</v>
       </c>
       <c r="K22" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kelayakan konsumen.xlsx
+++ b/Kelayakan konsumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dev\Project\salesapp\salesbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F70498-F29E-418D-A202-320A13D47453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94807B3A-1560-4609-853D-FA8038E7F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BE5FB8F-06E5-426B-9315-F4A5E8CB1B77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>_id</t>
   </si>
@@ -213,12 +213,6 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>startdate</t>
-  </si>
-  <si>
-    <t>closingdate</t>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
@@ -261,7 +255,25 @@
     <t>6. jika schedule sudah close karena melebihi masa maka konsumen tersebut tidak memiliki penilaian</t>
   </si>
   <si>
-    <t>duedate</t>
+    <t>worflowState</t>
+  </si>
+  <si>
+    <t>sceduleid</t>
+  </si>
+  <si>
+    <t>activeDate</t>
+  </si>
+  <si>
+    <t>deactiveDate</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>incluenewcustomer</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +328,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -360,6 +384,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -676,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9E2B-F8C5-4623-913E-2F62897E4AC7}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,14 +1152,14 @@
       <c r="K22" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -1137,18 +1167,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
+      <c r="A26" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -1157,21 +1187,21 @@
         <v>45</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>60</v>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -1179,63 +1209,93 @@
         <v>52</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C35" s="11" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
